--- a/micorcontroller/Hardware/MotherboardV4/Boom/BalloonMotherboardV4.xlsx
+++ b/micorcontroller/Hardware/MotherboardV4/Boom/BalloonMotherboardV4.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Andere Computer\Mein PC\Fynn\Projekte\Balloon\SpiCy-BEXUS\micorcontroller\Hardware\MotherboardV4\Boom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84CA3AEA-E75C-49A6-88DE-C586F042E374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A91FBA-CDDF-4A69-A5DF-1543D19F2E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BalloonMotherboardV4" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="270">
   <si>
     <t>Reference</t>
   </si>
@@ -355,12 +355,6 @@
     <t>1k</t>
   </si>
   <si>
-    <t>R39</t>
-  </si>
-  <si>
-    <t>72,5k</t>
-  </si>
-  <si>
     <t>R35</t>
   </si>
   <si>
@@ -382,21 +376,6 @@
     <t>R28</t>
   </si>
   <si>
-    <t>R27</t>
-  </si>
-  <si>
-    <t>1k  1%</t>
-  </si>
-  <si>
-    <t>R25</t>
-  </si>
-  <si>
-    <t>no fit</t>
-  </si>
-  <si>
-    <t>Resistor_SMD:R_0402_1005Metric_Pad0.72x0.64mm_HandSolder</t>
-  </si>
-  <si>
     <t>R17</t>
   </si>
   <si>
@@ -415,9 +394,6 @@
     <t>R12</t>
   </si>
   <si>
-    <t>R11</t>
-  </si>
-  <si>
     <t>DNP</t>
   </si>
   <si>
@@ -430,9 +406,6 @@
     <t>R6</t>
   </si>
   <si>
-    <t>12k</t>
-  </si>
-  <si>
     <t>R0</t>
   </si>
   <si>
@@ -715,12 +688,6 @@
     <t>Capacitor_SMD:C_0402_1005Metric_Pad0.74x0.62mm_HandSolder</t>
   </si>
   <si>
-    <t>C69</t>
-  </si>
-  <si>
-    <t>1u/40V</t>
-  </si>
-  <si>
     <t>Capacitor_SMD:C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
   </si>
   <si>
@@ -818,12 +785,6 @@
   </si>
   <si>
     <t>33n</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>0.22uF</t>
   </si>
   <si>
     <t>BuckJmp0</t>
@@ -874,8 +835,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1010,8 +971,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1189,6 +1164,36 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1308,7 +1313,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1351,11 +1356,19 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1389,6 +1402,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1728,17 +1742,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="58.85546875" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1771,58 +1787,55 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2">
-        <v>74439346068</v>
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2">
-        <v>74439346068</v>
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>184</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3">
-        <v>435441019830</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3">
-        <v>435441019830</v>
-      </c>
-      <c r="H3" t="s">
-        <v>64</v>
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
       </c>
       <c r="I3" t="s">
         <v>65</v>
@@ -1830,51 +1843,54 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4">
-        <v>693072010801</v>
+        <v>159</v>
+      </c>
+      <c r="B4" t="s">
+        <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>693072010801</v>
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" t="s">
+        <v>163</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>70</v>
+      <c r="A5" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I5" t="s">
         <v>77</v>
@@ -1882,28 +1898,28 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>208</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>209</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="I6" t="s">
         <v>28</v>
@@ -1911,28 +1927,28 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" t="s">
-        <v>92</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
         <v>96</v>
@@ -1940,57 +1956,57 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="G8" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="H8" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="I8" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
+        <v>54</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
@@ -1998,28 +2014,28 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="I10" t="s">
         <v>59</v>
@@ -2027,91 +2043,109 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B11" t="s">
-        <v>209</v>
+        <v>133</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>136</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>211</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="H11" t="s">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="I11" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" t="s">
-        <v>190</v>
+        <v>91</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>268</v>
-      </c>
-      <c r="B13" t="s">
-        <v>190</v>
+        <v>23</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
+        <v>199</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>202</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="I14" t="s">
         <v>15</v>
@@ -2119,120 +2153,132 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>146</v>
+      </c>
+      <c r="H15" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>197</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
-      </c>
-      <c r="C16" t="s">
-        <v>199</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>200</v>
+        <v>49</v>
       </c>
       <c r="E16">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>201</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s">
-        <v>198</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="I16" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>192</v>
+      <c r="A17" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="C17" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>215</v>
       </c>
       <c r="G17" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="H17" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E18">
         <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>263</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>264</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>265</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>266</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>263</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>267</v>
       </c>
       <c r="I19" t="s">
         <v>41</v>
@@ -2240,28 +2286,28 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>256</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>257</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>258</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>259</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>85</v>
+        <v>257</v>
       </c>
       <c r="H20" t="s">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="I20" t="s">
         <v>90</v>
@@ -2269,144 +2315,144 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="B21" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="C21" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="H21" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="I21" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>214</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>215</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="E22">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>217</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>218</v>
+        <v>39</v>
       </c>
       <c r="H22" t="s">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="I22" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>275</v>
+      <c r="A23" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>276</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>277</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>278</v>
+        <v>32</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>279</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>276</v>
+        <v>30</v>
       </c>
       <c r="H23" t="s">
-        <v>280</v>
+        <v>34</v>
       </c>
       <c r="I23" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>154</v>
+      <c r="A24" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C24" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D24" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="G24" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="H24" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="I24" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" t="s">
-        <v>79</v>
+      <c r="A25" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="4">
+        <v>74439346068</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" t="s">
-        <v>79</v>
+        <v>63</v>
+      </c>
+      <c r="G25">
+        <v>74439346068</v>
       </c>
       <c r="H25" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="I25" t="s">
         <v>83</v>
@@ -2414,71 +2460,74 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B26" t="s">
-        <v>187</v>
+        <v>60</v>
+      </c>
+      <c r="B26" s="4">
+        <v>435441019830</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26">
+        <v>435441019830</v>
+      </c>
+      <c r="H26" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>221</v>
-      </c>
-      <c r="B27" t="s">
-        <v>222</v>
+        <v>70</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>223</v>
+        <v>73</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>181</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="E28">
         <v>1</v>
-      </c>
-      <c r="F28" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" t="s">
-        <v>52</v>
       </c>
       <c r="I28" t="s">
         <v>53</v>
@@ -2486,132 +2535,102 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>197</v>
       </c>
       <c r="D29" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s">
-        <v>171</v>
-      </c>
-      <c r="G29" t="s">
-        <v>172</v>
-      </c>
-      <c r="H29" t="s">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>138</v>
+      <c r="A30" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="B30" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" t="s">
-        <v>18</v>
+        <v>184</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="E30">
         <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>184</v>
+      </c>
+      <c r="H30" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C31" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" t="s">
-        <v>149</v>
-      </c>
-      <c r="H31" t="s">
-        <v>152</v>
-      </c>
       <c r="I31" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>269</v>
-      </c>
-      <c r="B32" t="s">
-        <v>270</v>
+        <v>177</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="C32" t="s">
-        <v>271</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>272</v>
+        <v>179</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" t="s">
-        <v>270</v>
-      </c>
-      <c r="H32" t="s">
-        <v>273</v>
-      </c>
       <c r="I32" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="E33">
         <v>1</v>
-      </c>
-      <c r="F33" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" t="s">
-        <v>34</v>
       </c>
       <c r="I33" t="s">
         <v>35</v>
@@ -2619,16 +2638,16 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="C34" t="s">
-        <v>206</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>207</v>
+        <v>87</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2636,198 +2655,178 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>175</v>
-      </c>
-      <c r="B35" t="s">
-        <v>176</v>
+        <v>66</v>
+      </c>
+      <c r="B35" s="4">
+        <v>693072010801</v>
       </c>
       <c r="C35" t="s">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
-        <v>178</v>
+        <v>68</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="F35" t="s">
-        <v>179</v>
-      </c>
-      <c r="G35" t="s">
-        <v>176</v>
+      <c r="G35">
+        <v>693072010801</v>
       </c>
       <c r="H35" t="s">
-        <v>180</v>
+        <v>69</v>
       </c>
       <c r="I35" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>234</v>
-      </c>
-      <c r="B37" t="s">
-        <v>235</v>
+        <v>223</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E37">
         <v>28</v>
       </c>
     </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>218</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>220</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+    </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>227</v>
-      </c>
-      <c r="B39" t="s">
-        <v>228</v>
+        <v>247</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E39">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>266</v>
-      </c>
-      <c r="B40" t="s">
-        <v>267</v>
+        <v>225</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>247</v>
-      </c>
-      <c r="B41" t="s">
-        <v>248</v>
+        <v>243</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="C41" t="s">
         <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>256</v>
-      </c>
-      <c r="B42" t="s">
-        <v>257</v>
-      </c>
-      <c r="C42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" t="s">
-        <v>233</v>
-      </c>
-      <c r="E42">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>249</v>
-      </c>
-      <c r="B43" t="s">
-        <v>250</v>
-      </c>
-      <c r="C43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" t="s">
-        <v>233</v>
-      </c>
-      <c r="E43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>253</v>
-      </c>
-      <c r="B44" t="s">
-        <v>282</v>
+        <v>236</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>258</v>
-      </c>
-      <c r="B45" t="s">
-        <v>259</v>
+        <v>245</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="C45" t="s">
         <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>236</v>
-      </c>
-      <c r="B46" t="s">
-        <v>237</v>
+        <v>238</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>238</v>
-      </c>
-      <c r="B47" t="s">
-        <v>239</v>
+        <v>242</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2835,50 +2834,36 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>254</v>
-      </c>
-      <c r="B48" t="s">
-        <v>255</v>
+        <v>227</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>231</v>
-      </c>
-      <c r="B49" t="s">
-        <v>232</v>
-      </c>
-      <c r="C49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" t="s">
-        <v>233</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>242</v>
-      </c>
-      <c r="B50" t="s">
-        <v>243</v>
+        <v>231</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2886,16 +2871,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>261</v>
-      </c>
-      <c r="B51" t="s">
-        <v>262</v>
+        <v>250</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -2903,16 +2888,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>240</v>
-      </c>
-      <c r="B52" t="s">
-        <v>241</v>
+        <v>229</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E52">
         <v>5</v>
@@ -2920,16 +2905,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>264</v>
-      </c>
-      <c r="B53" t="s">
-        <v>265</v>
+        <v>253</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="C53" t="s">
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2937,16 +2922,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>251</v>
-      </c>
-      <c r="B54" t="s">
-        <v>252</v>
+        <v>240</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="C54" t="s">
         <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2954,16 +2939,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>244</v>
-      </c>
-      <c r="B55" t="s">
-        <v>245</v>
+        <v>233</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C55" t="s">
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2971,16 +2956,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>246</v>
-      </c>
-      <c r="B56" t="s">
-        <v>245</v>
+        <v>235</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C56" t="s">
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2988,16 +2973,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>260</v>
-      </c>
-      <c r="B57" t="s">
-        <v>132</v>
+        <v>249</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="C57" t="s">
         <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3005,26 +2990,29 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>263</v>
-      </c>
-      <c r="B58" t="s">
-        <v>132</v>
+        <v>252</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="C58" t="s">
         <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="6"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>128</v>
-      </c>
-      <c r="B60">
+        <v>121</v>
+      </c>
+      <c r="B60" s="4">
         <v>0</v>
       </c>
       <c r="C60" t="s">
@@ -3039,9 +3027,9 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>114</v>
-      </c>
-      <c r="B61">
+        <v>112</v>
+      </c>
+      <c r="B61" s="7">
         <v>27</v>
       </c>
       <c r="C61" t="s">
@@ -3058,7 +3046,7 @@
       <c r="A62" t="s">
         <v>108</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="7">
         <v>100</v>
       </c>
       <c r="C62" t="s">
@@ -3073,9 +3061,9 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>113</v>
-      </c>
-      <c r="B63">
+        <v>111</v>
+      </c>
+      <c r="B63" s="7">
         <v>150</v>
       </c>
       <c r="C63" t="s">
@@ -3090,9 +3078,9 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>117</v>
-      </c>
-      <c r="B64">
+        <v>115</v>
+      </c>
+      <c r="B64" s="7">
         <v>220</v>
       </c>
       <c r="C64" t="s">
@@ -3107,9 +3095,9 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>118</v>
-      </c>
-      <c r="B65">
+        <v>116</v>
+      </c>
+      <c r="B65" s="7">
         <v>270</v>
       </c>
       <c r="C65" t="s">
@@ -3126,7 +3114,7 @@
       <c r="A66" t="s">
         <v>100</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="7">
         <v>330</v>
       </c>
       <c r="C66" t="s">
@@ -3141,9 +3129,9 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>116</v>
-      </c>
-      <c r="B67">
+        <v>114</v>
+      </c>
+      <c r="B67" s="7">
         <v>680</v>
       </c>
       <c r="C67" t="s">
@@ -3158,9 +3146,9 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>135</v>
-      </c>
-      <c r="B68">
+        <v>127</v>
+      </c>
+      <c r="B68" s="7">
         <v>1500</v>
       </c>
       <c r="C68" t="s">
@@ -3175,10 +3163,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>133</v>
-      </c>
-      <c r="B69" t="s">
-        <v>134</v>
+        <v>125</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="C69" t="s">
         <v>18</v>
@@ -3194,7 +3182,7 @@
       <c r="A70" t="s">
         <v>97</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="7" t="s">
         <v>98</v>
       </c>
       <c r="C70" t="s">
@@ -3211,7 +3199,7 @@
       <c r="A71" t="s">
         <v>102</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="7" t="s">
         <v>103</v>
       </c>
       <c r="C71" t="s">
@@ -3228,7 +3216,7 @@
       <c r="A72" t="s">
         <v>106</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="7" t="s">
         <v>107</v>
       </c>
       <c r="C72" t="s">
@@ -3243,26 +3231,14 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>137</v>
-      </c>
-      <c r="B73" t="s">
-        <v>136</v>
-      </c>
-      <c r="C73" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" t="s">
-        <v>99</v>
-      </c>
-      <c r="E73">
-        <v>2</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>130</v>
-      </c>
-      <c r="B74" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>110</v>
       </c>
       <c r="C74" t="s">
@@ -3272,31 +3248,14 @@
         <v>99</v>
       </c>
       <c r="E74">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>120</v>
-      </c>
-      <c r="B75" t="s">
-        <v>121</v>
-      </c>
-      <c r="C75" t="s">
-        <v>18</v>
-      </c>
-      <c r="D75" t="s">
-        <v>99</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>129</v>
-      </c>
-      <c r="B76" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>101</v>
       </c>
       <c r="C76" t="s">
@@ -3311,9 +3270,9 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>125</v>
-      </c>
-      <c r="B77" t="s">
+        <v>118</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C77" t="s">
@@ -3330,7 +3289,7 @@
       <c r="A78" t="s">
         <v>105</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="7" t="s">
         <v>104</v>
       </c>
       <c r="C78" t="s">
@@ -3345,10 +3304,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>119</v>
-      </c>
-      <c r="B79" t="s">
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="C79" t="s">
         <v>18</v>
@@ -3362,10 +3321,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>126</v>
-      </c>
-      <c r="B80" t="s">
-        <v>127</v>
+        <v>119</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="C80" t="s">
         <v>18</v>
@@ -3377,61 +3336,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>111</v>
-      </c>
-      <c r="B81" t="s">
-        <v>112</v>
-      </c>
-      <c r="C81" t="s">
-        <v>18</v>
-      </c>
-      <c r="D81" t="s">
-        <v>99</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>131</v>
-      </c>
-      <c r="B82" t="s">
-        <v>132</v>
-      </c>
-      <c r="C82" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82" t="s">
-        <v>99</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>122</v>
-      </c>
-      <c r="B83" t="s">
-        <v>123</v>
-      </c>
-      <c r="C83" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83" t="s">
-        <v>124</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A65:E136">
-    <sortCondition ref="B65:B136"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:E58">
+    <sortCondition ref="D41:D58"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="C30" r:id="rId1" xr:uid="{776174DC-B74B-4047-A0D6-04057AA1711A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>